--- a/RESSOURCES/DLC-DGR PRODUITS Toutes Marques.xlsx
+++ b/RESSOURCES/DLC-DGR PRODUITS Toutes Marques.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\PRODUCTION\FABRICATION\PRODUITS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\econte\Desktop\Edouard\Divisio\RESSOURCES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ED5C9A-949D-42B2-9D1C-280443395C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AC0FC5-CBF4-43DE-8FD1-4E3A98D10FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF242C29-7D73-4F7A-AFD0-31B3FE4C6A8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{FF242C29-7D73-4F7A-AFD0-31B3FE4C6A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="BIOCHAMPS-PROTT" sheetId="1" r:id="rId1"/>
@@ -30,15 +30,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -47,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="669">
   <si>
     <t>BIOCHAMPS</t>
   </si>
@@ -1904,13 +1895,163 @@
   </si>
   <si>
     <t>DGR</t>
+  </si>
+  <si>
+    <t>Gamme</t>
+  </si>
+  <si>
+    <t>ETUVE BREBIS</t>
+  </si>
+  <si>
+    <t>CREME BREBIS</t>
+  </si>
+  <si>
+    <t>CREME FRAICHE BREBIS</t>
+  </si>
+  <si>
+    <t>CREME FRAICHE VACHE</t>
+  </si>
+  <si>
+    <t>FAISSELLE DE BREBIS</t>
+  </si>
+  <si>
+    <t>FROMAGE BLANC BREBIS</t>
+  </si>
+  <si>
+    <t>FROMAGE BLANC VACHE</t>
+  </si>
+  <si>
+    <t>YAOURT BRASSE BREBIS</t>
+  </si>
+  <si>
+    <t>YAOURT BRASSE VACHE</t>
+  </si>
+  <si>
+    <t>FICHE FAB</t>
+  </si>
+  <si>
+    <t>E006</t>
+  </si>
+  <si>
+    <t>E168</t>
+  </si>
+  <si>
+    <t>E011</t>
+  </si>
+  <si>
+    <t>E060</t>
+  </si>
+  <si>
+    <t>E010</t>
+  </si>
+  <si>
+    <t>E012</t>
+  </si>
+  <si>
+    <t>SKYR BREBIS</t>
+  </si>
+  <si>
+    <t>E152</t>
+  </si>
+  <si>
+    <t>YAOURT A LA GRECQUE BREBIS</t>
+  </si>
+  <si>
+    <t>E034</t>
+  </si>
+  <si>
+    <t>E007</t>
+  </si>
+  <si>
+    <t>E008</t>
+  </si>
+  <si>
+    <t>E009</t>
+  </si>
+  <si>
+    <t>E013</t>
+  </si>
+  <si>
+    <t>E014</t>
+  </si>
+  <si>
+    <t>E015</t>
+  </si>
+  <si>
+    <t>E016</t>
+  </si>
+  <si>
+    <t>E017</t>
+  </si>
+  <si>
+    <t>E018</t>
+  </si>
+  <si>
+    <t>E019</t>
+  </si>
+  <si>
+    <t>VELOUTE BREBIS</t>
+  </si>
+  <si>
+    <t>YAOURT A LA GRECQUE VACHE</t>
+  </si>
+  <si>
+    <t>SOJA BRASSE</t>
+  </si>
+  <si>
+    <t>SKYR VACHE</t>
+  </si>
+  <si>
+    <t>DESSERT AMANDE</t>
+  </si>
+  <si>
+    <t>BRASSE VACHE</t>
+  </si>
+  <si>
+    <t>SOJA ETUVE</t>
+  </si>
+  <si>
+    <t>SKYR SOJA</t>
+  </si>
+  <si>
+    <t>BRASSE COCO</t>
+  </si>
+  <si>
+    <t>BRASSE RIZ</t>
+  </si>
+  <si>
+    <t>CREME SARRASIN</t>
+  </si>
+  <si>
+    <t>CREME RIZ CHOCO</t>
+  </si>
+  <si>
+    <t>CREME FRAICHE VEGETALE</t>
+  </si>
+  <si>
+    <t>MOMAGE</t>
+  </si>
+  <si>
+    <t>MOYOURT</t>
+  </si>
+  <si>
+    <t>FROMAGE FRAIS VEGETALE</t>
+  </si>
+  <si>
+    <t>FROMAGE FRAIS VACHE</t>
+  </si>
+  <si>
+    <t>RIZ AU LAIT</t>
+  </si>
+  <si>
+    <t>SKYR AMANDE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1958,6 +2099,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1972,7 +2119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1995,11 +2142,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2028,6 +2199,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2342,10 +2523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A41C72-B124-4583-A17E-6A6C446661B5}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2355,9 +2536,11 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>611</v>
       </c>
@@ -2376,8 +2559,14 @@
       <c r="F1" s="2" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>553</v>
       </c>
@@ -2396,8 +2585,14 @@
       <c r="F2" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>550</v>
       </c>
@@ -2416,8 +2611,14 @@
       <c r="F3" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>547</v>
       </c>
@@ -2436,8 +2637,14 @@
       <c r="F4" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>544</v>
       </c>
@@ -2456,8 +2663,14 @@
       <c r="F5" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>541</v>
       </c>
@@ -2476,8 +2689,14 @@
       <c r="F6" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>538</v>
       </c>
@@ -2496,8 +2715,14 @@
       <c r="F7" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>535</v>
       </c>
@@ -2516,8 +2741,14 @@
       <c r="F8" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>532</v>
       </c>
@@ -2536,8 +2767,14 @@
       <c r="F9" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>526</v>
       </c>
@@ -2556,8 +2793,14 @@
       <c r="F10" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>523</v>
       </c>
@@ -2576,8 +2819,14 @@
       <c r="F11" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>520</v>
       </c>
@@ -2596,8 +2845,14 @@
       <c r="F12" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>502</v>
       </c>
@@ -2616,8 +2871,14 @@
       <c r="F13" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>497</v>
       </c>
@@ -2636,8 +2897,14 @@
       <c r="F14" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>494</v>
       </c>
@@ -2656,8 +2923,14 @@
       <c r="F15" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>489</v>
       </c>
@@ -2676,8 +2949,14 @@
       <c r="F16" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>488</v>
       </c>
@@ -2696,8 +2975,14 @@
       <c r="F17" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>485</v>
       </c>
@@ -2716,8 +3001,14 @@
       <c r="F18" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>482</v>
       </c>
@@ -2736,8 +3027,14 @@
       <c r="F19" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>479</v>
       </c>
@@ -2756,8 +3053,14 @@
       <c r="F20" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>476</v>
       </c>
@@ -2776,8 +3079,14 @@
       <c r="F21" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>473</v>
       </c>
@@ -2796,8 +3105,14 @@
       <c r="F22" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>470</v>
       </c>
@@ -2816,8 +3131,14 @@
       <c r="F23" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>467</v>
       </c>
@@ -2836,8 +3157,14 @@
       <c r="F24" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>464</v>
       </c>
@@ -2856,8 +3183,14 @@
       <c r="F25" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>461</v>
       </c>
@@ -2876,8 +3209,14 @@
       <c r="F26" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>458</v>
       </c>
@@ -2896,8 +3235,14 @@
       <c r="F27" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>455</v>
       </c>
@@ -2916,8 +3261,14 @@
       <c r="F28" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>260</v>
       </c>
@@ -2936,8 +3287,14 @@
       <c r="F29" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>190</v>
       </c>
@@ -2956,8 +3313,14 @@
       <c r="F30" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G30" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>187</v>
       </c>
@@ -2976,8 +3339,14 @@
       <c r="F31" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>184</v>
       </c>
@@ -2996,8 +3365,14 @@
       <c r="F32" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G32" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>181</v>
       </c>
@@ -3016,8 +3391,14 @@
       <c r="F33" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>178</v>
       </c>
@@ -3036,8 +3417,14 @@
       <c r="F34" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>175</v>
       </c>
@@ -3056,8 +3443,14 @@
       <c r="F35" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G35" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>172</v>
       </c>
@@ -3076,8 +3469,14 @@
       <c r="F36" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G36" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>169</v>
       </c>
@@ -3096,8 +3495,14 @@
       <c r="F37" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G37" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>166</v>
       </c>
@@ -3116,8 +3521,14 @@
       <c r="F38" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G38" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>163</v>
       </c>
@@ -3136,8 +3547,14 @@
       <c r="F39" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G39" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
@@ -3156,8 +3573,14 @@
       <c r="F40" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G40" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>157</v>
       </c>
@@ -3176,8 +3599,14 @@
       <c r="F41" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G41" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>154</v>
       </c>
@@ -3196,8 +3625,14 @@
       <c r="F42" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G42" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>151</v>
       </c>
@@ -3216,8 +3651,14 @@
       <c r="F43" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G43" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>148</v>
       </c>
@@ -3236,8 +3677,14 @@
       <c r="F44" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G44" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>145</v>
       </c>
@@ -3256,8 +3703,14 @@
       <c r="F45" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G45" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>142</v>
       </c>
@@ -3276,8 +3729,14 @@
       <c r="F46" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G46" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>139</v>
       </c>
@@ -3296,8 +3755,14 @@
       <c r="F47" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G47" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>136</v>
       </c>
@@ -3316,8 +3781,14 @@
       <c r="F48" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G48" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>133</v>
       </c>
@@ -3336,8 +3807,14 @@
       <c r="F49" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G49" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>130</v>
       </c>
@@ -3356,8 +3833,14 @@
       <c r="F50" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G50" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>127</v>
       </c>
@@ -3376,8 +3859,14 @@
       <c r="F51" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G51" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>124</v>
       </c>
@@ -3396,8 +3885,14 @@
       <c r="F52" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G52" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>121</v>
       </c>
@@ -3416,8 +3911,14 @@
       <c r="F53" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G53" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>118</v>
       </c>
@@ -3436,8 +3937,14 @@
       <c r="F54" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G54" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>115</v>
       </c>
@@ -3456,8 +3963,14 @@
       <c r="F55" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G55" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>112</v>
       </c>
@@ -3476,8 +3989,14 @@
       <c r="F56" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G56" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>109</v>
       </c>
@@ -3496,8 +4015,14 @@
       <c r="F57" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G57" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>106</v>
       </c>
@@ -3516,8 +4041,14 @@
       <c r="F58" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G58" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>103</v>
       </c>
@@ -3536,8 +4067,14 @@
       <c r="F59" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G59" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>100</v>
       </c>
@@ -3556,8 +4093,14 @@
       <c r="F60" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G60" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>97</v>
       </c>
@@ -3576,8 +4119,14 @@
       <c r="F61" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G61" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>94</v>
       </c>
@@ -3596,8 +4145,14 @@
       <c r="F62" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G62" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>91</v>
       </c>
@@ -3616,8 +4171,14 @@
       <c r="F63" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G63" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>88</v>
       </c>
@@ -3636,8 +4197,14 @@
       <c r="F64" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G64" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>85</v>
       </c>
@@ -3656,8 +4223,14 @@
       <c r="F65" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G65" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
@@ -3676,8 +4249,14 @@
       <c r="F66" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G66" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -3696,8 +4275,14 @@
       <c r="F67" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G67" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
@@ -3716,8 +4301,12 @@
       <c r="F68" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G68" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -3736,8 +4325,12 @@
       <c r="F69" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G69" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
@@ -3756,8 +4349,12 @@
       <c r="F70" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G70" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>58</v>
       </c>
@@ -3776,8 +4373,12 @@
       <c r="F71" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>650</v>
+      </c>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>55</v>
       </c>
@@ -3796,8 +4397,12 @@
       <c r="F72" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G72" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>49</v>
       </c>
@@ -3816,8 +4421,12 @@
       <c r="F73" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G73" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>46</v>
       </c>
@@ -3836,8 +4445,12 @@
       <c r="F74" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G74" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>43</v>
       </c>
@@ -3856,8 +4469,12 @@
       <c r="F75" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G75" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>36</v>
       </c>
@@ -3876,8 +4493,12 @@
       <c r="F76" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G76" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>30</v>
       </c>
@@ -3896,8 +4517,12 @@
       <c r="F77" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G77" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
@@ -3916,8 +4541,12 @@
       <c r="F78" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G78" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>24</v>
       </c>
@@ -3936,8 +4565,12 @@
       <c r="F79" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G79" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>21</v>
       </c>
@@ -3956,8 +4589,12 @@
       <c r="F80" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G80" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>18</v>
       </c>
@@ -3976,8 +4613,12 @@
       <c r="F81" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G81" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>15</v>
       </c>
@@ -3996,8 +4637,12 @@
       <c r="F82" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G82" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>12</v>
       </c>
@@ -4016,8 +4661,12 @@
       <c r="F83" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G83" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>9</v>
       </c>
@@ -4036,8 +4685,12 @@
       <c r="F84" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G84" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -4056,8 +4709,12 @@
       <c r="F85" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G85" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>3</v>
       </c>
@@ -4076,8 +4733,12 @@
       <c r="F86" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G86" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>291</v>
       </c>
@@ -4096,8 +4757,12 @@
       <c r="F87" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G87" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>288</v>
       </c>
@@ -4116,8 +4781,12 @@
       <c r="F88" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G88" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>285</v>
       </c>
@@ -4136,11 +4805,16 @@
       <c r="F89" s="6">
         <v>20</v>
       </c>
+      <c r="G89" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H89" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F95">
     <sortCondition ref="D2:D95"/>
   </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4148,10 +4822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9B9FAB-AE09-42A2-B27D-0C206FEF4D27}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4159,9 +4833,10 @@
     <col min="1" max="1" width="91.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>611</v>
       </c>
@@ -4180,8 +4855,14 @@
       <c r="F1" s="2" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>605</v>
       </c>
@@ -4200,8 +4881,12 @@
       <c r="F2" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>602</v>
       </c>
@@ -4220,8 +4905,12 @@
       <c r="F3" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>599</v>
       </c>
@@ -4240,8 +4929,12 @@
       <c r="F4" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>596</v>
       </c>
@@ -4260,8 +4953,12 @@
       <c r="F5" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>593</v>
       </c>
@@ -4280,8 +4977,12 @@
       <c r="F6" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>650</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>590</v>
       </c>
@@ -4300,8 +5001,12 @@
       <c r="F7" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>587</v>
       </c>
@@ -4320,8 +5025,12 @@
       <c r="F8" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>584</v>
       </c>
@@ -4340,8 +5049,12 @@
       <c r="F9" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>581</v>
       </c>
@@ -4360,8 +5073,12 @@
       <c r="F10" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>578</v>
       </c>
@@ -4380,8 +5097,12 @@
       <c r="F11" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>575</v>
       </c>
@@ -4400,8 +5121,12 @@
       <c r="F12" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>572</v>
       </c>
@@ -4420,8 +5145,12 @@
       <c r="F13" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>569</v>
       </c>
@@ -4440,8 +5169,12 @@
       <c r="F14" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>566</v>
       </c>
@@ -4460,6 +5193,10 @@
       <c r="F15" s="8">
         <v>20</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="H15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4468,10 +5205,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09D9D0F-44FB-4251-9DE6-8BB3356FD2BD}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4480,9 +5217,10 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>611</v>
       </c>
@@ -4501,8 +5239,14 @@
       <c r="F1" s="2" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>197</v>
       </c>
@@ -4521,8 +5265,12 @@
       <c r="F2" s="8">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>194</v>
       </c>
@@ -4541,6 +5289,10 @@
       <c r="F3" s="8">
         <v>28</v>
       </c>
+      <c r="G3" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="H3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4549,10 +5301,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0B010C-8852-46CB-A8CF-D5BE86D0B907}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4561,9 +5313,10 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>611</v>
       </c>
@@ -4582,8 +5335,14 @@
       <c r="F1" s="2" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>437</v>
       </c>
@@ -4602,8 +5361,12 @@
       <c r="F2" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
@@ -4622,8 +5385,12 @@
       <c r="F3" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>431</v>
       </c>
@@ -4642,8 +5409,12 @@
       <c r="F4" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>428</v>
       </c>
@@ -4662,8 +5433,12 @@
       <c r="F5" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>425</v>
       </c>
@@ -4682,8 +5457,12 @@
       <c r="F6" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>422</v>
       </c>
@@ -4702,8 +5481,12 @@
       <c r="F7" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>419</v>
       </c>
@@ -4722,8 +5505,12 @@
       <c r="F8" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>416</v>
       </c>
@@ -4742,8 +5529,12 @@
       <c r="F9" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>413</v>
       </c>
@@ -4762,8 +5553,12 @@
       <c r="F10" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>410</v>
       </c>
@@ -4782,8 +5577,12 @@
       <c r="F11" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>407</v>
       </c>
@@ -4802,8 +5601,12 @@
       <c r="F12" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>404</v>
       </c>
@@ -4822,8 +5625,12 @@
       <c r="F13" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>401</v>
       </c>
@@ -4842,8 +5649,12 @@
       <c r="F14" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>398</v>
       </c>
@@ -4862,8 +5673,12 @@
       <c r="F15" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>654</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>395</v>
       </c>
@@ -4882,8 +5697,12 @@
       <c r="F16" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G16" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>392</v>
       </c>
@@ -4902,8 +5721,12 @@
       <c r="F17" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>389</v>
       </c>
@@ -4922,8 +5745,12 @@
       <c r="F18" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G18" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>386</v>
       </c>
@@ -4942,8 +5769,12 @@
       <c r="F19" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>383</v>
       </c>
@@ -4962,8 +5793,12 @@
       <c r="F20" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>380</v>
       </c>
@@ -4982,8 +5817,12 @@
       <c r="F21" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>377</v>
       </c>
@@ -5002,8 +5841,12 @@
       <c r="F22" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>374</v>
       </c>
@@ -5022,8 +5865,12 @@
       <c r="F23" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>371</v>
       </c>
@@ -5042,8 +5889,12 @@
       <c r="F24" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>368</v>
       </c>
@@ -5062,6 +5913,10 @@
       <c r="F25" s="8">
         <v>20</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5070,10 +5925,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9113B9FC-F4A7-4203-8873-B9D91B47942A}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G5" sqref="G5:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5081,9 +5936,10 @@
     <col min="1" max="1" width="58" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>611</v>
       </c>
@@ -5102,8 +5958,14 @@
       <c r="F1" s="2" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>529</v>
       </c>
@@ -5122,8 +5984,12 @@
       <c r="F2" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>613</v>
       </c>
@@ -5142,8 +6008,12 @@
       <c r="F3" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>452</v>
       </c>
@@ -5162,8 +6032,12 @@
       <c r="F4" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>449</v>
       </c>
@@ -5182,8 +6056,12 @@
       <c r="F5" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>446</v>
       </c>
@@ -5202,8 +6080,12 @@
       <c r="F6" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>443</v>
       </c>
@@ -5222,8 +6104,12 @@
       <c r="F7" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>440</v>
       </c>
@@ -5242,8 +6128,12 @@
       <c r="F8" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>70</v>
       </c>
@@ -5262,8 +6152,12 @@
       <c r="F9" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -5282,8 +6176,12 @@
       <c r="F10" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -5302,8 +6200,12 @@
       <c r="F11" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>615</v>
       </c>
@@ -5322,8 +6224,12 @@
       <c r="F12" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>616</v>
       </c>
@@ -5342,8 +6248,12 @@
       <c r="F13" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -5362,8 +6272,12 @@
       <c r="F14" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -5382,18 +6296,23 @@
       <c r="F15" s="8">
         <v>20</v>
       </c>
+      <c r="G15" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="H15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E594CBA-1C90-45C0-922D-1E64588414A3}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5401,9 +6320,10 @@
     <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>611</v>
       </c>
@@ -5422,8 +6342,14 @@
       <c r="F1" s="2" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>508</v>
       </c>
@@ -5442,8 +6368,12 @@
       <c r="F2" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>505</v>
       </c>
@@ -5462,8 +6392,12 @@
       <c r="F3" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>244</v>
       </c>
@@ -5482,8 +6416,12 @@
       <c r="F4" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>241</v>
       </c>
@@ -5502,8 +6440,12 @@
       <c r="F5" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>238</v>
       </c>
@@ -5522,8 +6464,12 @@
       <c r="F6" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>235</v>
       </c>
@@ -5542,8 +6488,12 @@
       <c r="F7" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>232</v>
       </c>
@@ -5562,8 +6512,12 @@
       <c r="F8" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>229</v>
       </c>
@@ -5582,8 +6536,12 @@
       <c r="F9" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>226</v>
       </c>
@@ -5602,8 +6560,12 @@
       <c r="F10" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>223</v>
       </c>
@@ -5622,8 +6584,12 @@
       <c r="F11" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>220</v>
       </c>
@@ -5642,8 +6608,12 @@
       <c r="F12" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>217</v>
       </c>
@@ -5662,8 +6632,12 @@
       <c r="F13" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>214</v>
       </c>
@@ -5682,8 +6656,12 @@
       <c r="F14" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>211</v>
       </c>
@@ -5702,8 +6680,12 @@
       <c r="F15" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>208</v>
       </c>
@@ -5722,8 +6704,12 @@
       <c r="F16" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>205</v>
       </c>
@@ -5742,6 +6728,10 @@
       <c r="F17" s="8">
         <v>20</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5750,19 +6740,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1350CDE1-7D14-4728-BB54-CEDD4D4F2AF5}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F41"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>611</v>
       </c>
@@ -5781,8 +6772,14 @@
       <c r="F1" s="2" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>608</v>
       </c>
@@ -5801,8 +6798,12 @@
       <c r="F2" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>562</v>
       </c>
@@ -5821,8 +6822,12 @@
       <c r="F3" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>559</v>
       </c>
@@ -5841,8 +6846,12 @@
       <c r="F4" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>556</v>
       </c>
@@ -5861,8 +6870,12 @@
       <c r="F5" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>517</v>
       </c>
@@ -5881,8 +6894,12 @@
       <c r="F6" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>514</v>
       </c>
@@ -5901,8 +6918,12 @@
       <c r="F7" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>511</v>
       </c>
@@ -5921,8 +6942,12 @@
       <c r="F8" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>364</v>
       </c>
@@ -5941,8 +6966,12 @@
       <c r="F9" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>361</v>
       </c>
@@ -5961,8 +6990,12 @@
       <c r="F10" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>358</v>
       </c>
@@ -5981,8 +7014,12 @@
       <c r="F11" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>355</v>
       </c>
@@ -6001,8 +7038,12 @@
       <c r="F12" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>352</v>
       </c>
@@ -6021,8 +7062,12 @@
       <c r="F13" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>349</v>
       </c>
@@ -6041,8 +7086,12 @@
       <c r="F14" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>346</v>
       </c>
@@ -6061,8 +7110,12 @@
       <c r="F15" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G15" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>343</v>
       </c>
@@ -6081,8 +7134,12 @@
       <c r="F16" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G16" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>340</v>
       </c>
@@ -6101,8 +7158,12 @@
       <c r="F17" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>337</v>
       </c>
@@ -6121,8 +7182,12 @@
       <c r="F18" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G18" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>334</v>
       </c>
@@ -6141,8 +7206,12 @@
       <c r="F19" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G19" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>331</v>
       </c>
@@ -6161,8 +7230,12 @@
       <c r="F20" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G20" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>328</v>
       </c>
@@ -6181,8 +7254,12 @@
       <c r="F21" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G21" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>325</v>
       </c>
@@ -6201,8 +7278,12 @@
       <c r="F22" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G22" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>312</v>
       </c>
@@ -6221,8 +7302,12 @@
       <c r="F23" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G23" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>306</v>
       </c>
@@ -6241,8 +7326,12 @@
       <c r="F24" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G24" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>300</v>
       </c>
@@ -6261,8 +7350,12 @@
       <c r="F25" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G25" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>297</v>
       </c>
@@ -6281,8 +7374,12 @@
       <c r="F26" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G26" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>281</v>
       </c>
@@ -6301,8 +7398,12 @@
       <c r="F27" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G27" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>278</v>
       </c>
@@ -6321,8 +7422,12 @@
       <c r="F28" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G28" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>272</v>
       </c>
@@ -6341,8 +7446,12 @@
       <c r="F29" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G29" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>269</v>
       </c>
@@ -6361,8 +7470,12 @@
       <c r="F30" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G30" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>266</v>
       </c>
@@ -6381,8 +7494,12 @@
       <c r="F31" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G31" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>263</v>
       </c>
@@ -6401,8 +7518,12 @@
       <c r="F32" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G32" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>257</v>
       </c>
@@ -6421,8 +7542,12 @@
       <c r="F33" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G33" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>254</v>
       </c>
@@ -6441,8 +7566,12 @@
       <c r="F34" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G34" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>201</v>
       </c>
@@ -6461,8 +7590,12 @@
       <c r="F35" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G35" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>309</v>
       </c>
@@ -6481,8 +7614,12 @@
       <c r="F36" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G36" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>303</v>
       </c>
@@ -6501,8 +7638,12 @@
       <c r="F37" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G37" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>294</v>
       </c>
@@ -6521,8 +7662,12 @@
       <c r="F38" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G38" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>275</v>
       </c>
@@ -6541,8 +7686,12 @@
       <c r="F39" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G39" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>251</v>
       </c>
@@ -6561,8 +7710,12 @@
       <c r="F40" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G40" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>248</v>
       </c>
@@ -6581,6 +7734,10 @@
       <c r="F41" s="8">
         <v>25</v>
       </c>
+      <c r="G41" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="H41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6589,10 +7746,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6132D483-453E-4ED3-B256-8EB6041D1DA0}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6600,9 +7757,10 @@
     <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>611</v>
       </c>
@@ -6621,8 +7779,14 @@
       <c r="F1" s="2" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>322</v>
       </c>
@@ -6641,8 +7805,12 @@
       <c r="F2" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>319</v>
       </c>
@@ -6661,8 +7829,11 @@
       <c r="F3" s="8">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="9" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>316</v>
       </c>
@@ -6680,6 +7851,9 @@
       </c>
       <c r="F4" s="8">
         <v>23</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>620</v>
       </c>
     </row>
   </sheetData>
